--- a/gameTb/client/table/网络地址.xlsx
+++ b/gameTb/client/table/网络地址.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unseen\gameTb\client\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\solution\resource\gameTb\client\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -210,10 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://localhost/api/server/serverList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>roleList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,6 +301,10 @@
   </si>
   <si>
     <t>{"mOperatorName":"%1%","mVersionNo":"%2%","mAccountId":"%3%"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost/api/server/getServerList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,7 +694,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -725,10 +725,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>37</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>38</v>
@@ -783,10 +783,10 @@
         <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>39</v>
@@ -812,10 +812,10 @@
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -841,10 +841,10 @@
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>29</v>
@@ -899,10 +899,10 @@
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -928,10 +928,10 @@
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -957,27 +957,27 @@
         <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -986,19 +986,19 @@
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1058,18 +1058,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1093,7 +1093,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1129,7 +1129,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>

--- a/gameTb/client/table/网络地址.xlsx
+++ b/gameTb/client/table/网络地址.xlsx
@@ -13,10 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="urlMgr" sheetId="14" r:id="rId1"/>
-    <sheet name="urlMgr.j" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="urlMgr.i" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="ssl.j" sheetId="20" state="hidden" r:id="rId3"/>
     <sheet name="dispatchId.j" sheetId="19" state="hidden" r:id="rId4"/>
-    <sheet name="type.i" sheetId="15" state="hidden" r:id="rId5"/>
+    <sheet name="type.j" sheetId="15" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="appTypek">#REF!</definedName>
@@ -25,7 +25,7 @@
     <definedName name="isJsonk">#REF!</definedName>
     <definedName name="operatorNamek">#REF!</definedName>
     <definedName name="sslk">ssl.j!$A:$A</definedName>
-    <definedName name="typek">type.i!$A:$A</definedName>
+    <definedName name="typek">type.j!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -694,7 +694,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>

--- a/gameTb/client/table/网络地址.xlsx
+++ b/gameTb/client/table/网络地址.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t>int16_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,30 +202,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>serverList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>roleList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色列表地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost/api/role/roleList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mOperatorName":"%1%","mVersionNo":"%2%"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dispatchId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,7 +284,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://localhost/api/server/getServerList</t>
+    <t>http://localhost/api/server/getServerItems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐号角色列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,11 +674,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -725,10 +709,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>37</v>
@@ -754,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>38</v>
@@ -783,10 +767,10 @@
         <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>39</v>
@@ -812,10 +796,10 @@
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -841,10 +825,10 @@
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -870,10 +854,10 @@
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -887,7 +871,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>29</v>
@@ -899,10 +883,10 @@
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -911,7 +895,7 @@
         <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -928,10 +912,10 @@
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -948,7 +932,7 @@
         <v>41</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -957,48 +941,19 @@
         <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1021,10 +976,9 @@
     <hyperlink ref="H8" r:id="rId4"/>
     <hyperlink ref="H4" r:id="rId5"/>
     <hyperlink ref="H9" r:id="rId6"/>
-    <hyperlink ref="H10" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1058,18 +1012,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1093,7 +1047,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
@@ -1101,7 +1055,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1129,7 +1083,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
@@ -1137,7 +1091,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1145,7 +1099,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -1153,7 +1107,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -1161,7 +1115,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>

--- a/gameTb/client/table/网络地址.xlsx
+++ b/gameTb/client/table/网络地址.xlsx
@@ -272,14 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>netList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mOperatorName":"%1%","mVersionNo":"%2%","mClassifyId":"%3%"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"mOperatorName":"%1%","mVersionNo":"%2%","mAccountId":"%3%"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,6 +281,14 @@
   </si>
   <si>
     <t>帐号角色列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mOperatorName":"%1%","mVersionNo":"%2%","mServerId":"%3%"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idleAgent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,7 +678,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -871,7 +871,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>29</v>
@@ -895,7 +895,7 @@
         <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -932,7 +932,7 @@
         <v>41</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/gameTb/client/table/网络地址.xlsx
+++ b/gameTb/client/table/网络地址.xlsx
@@ -226,10 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>帐号管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>副本管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,6 +285,10 @@
   </si>
   <si>
     <t>idleAgent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>42</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>43</v>
@@ -767,10 +767,10 @@
         <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>39</v>
@@ -796,10 +796,10 @@
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>29</v>
@@ -883,10 +883,10 @@
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -912,10 +912,10 @@
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>41</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -941,19 +941,19 @@
         <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1047,7 +1047,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1072,18 +1072,18 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>

--- a/gameTb/client/table/网络地址.xlsx
+++ b/gameTb/client/table/网络地址.xlsx
@@ -14,16 +14,14 @@
   <sheets>
     <sheet name="urlMgr" sheetId="14" r:id="rId1"/>
     <sheet name="urlMgr.i" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="ssl.j" sheetId="20" state="hidden" r:id="rId3"/>
-    <sheet name="dispatchId.j" sheetId="19" state="hidden" r:id="rId4"/>
-    <sheet name="type.j" sheetId="15" state="hidden" r:id="rId5"/>
+    <sheet name="id.j" sheetId="21" state="hidden" r:id="rId3"/>
+    <sheet name="ssl.j" sheetId="20" state="hidden" r:id="rId4"/>
+    <sheet name="dispatchId.j" sheetId="19" state="hidden" r:id="rId5"/>
+    <sheet name="type.j" sheetId="15" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="appTypek">#REF!</definedName>
     <definedName name="dispatchIdk">dispatchId.j!$A:$A</definedName>
-    <definedName name="handleConfigk">#REF!</definedName>
-    <definedName name="isJsonk">#REF!</definedName>
-    <definedName name="operatorNamek">#REF!</definedName>
+    <definedName name="idk">id.j!$A:$A</definedName>
     <definedName name="sslk">ssl.j!$A:$A</definedName>
     <definedName name="typek">type.j!$A:$A</definedName>
   </definedNames>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>int16_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int8_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地址描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地址类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,6 +276,36 @@
   <si>
     <t>角色管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id.j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐号检查地址</t>
+  </si>
+  <si>
+    <t>帐号注册地址</t>
+  </si>
+  <si>
+    <t>帐号登陆地址</t>
+  </si>
+  <si>
+    <t>代理服务器地址</t>
+  </si>
+  <si>
+    <t>角色创建地址</t>
+  </si>
+  <si>
+    <t>帐号角色列表</t>
   </si>
 </sst>
 </file>
@@ -674,28 +690,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="40.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="100" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="8.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="40.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="100" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -703,279 +718,255 @@
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>58</v>
+      <c r="H9" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>typek</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>dispatchIdk</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>sslk</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+      <formula1>idk</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1"/>
-    <hyperlink ref="H6" r:id="rId2"/>
-    <hyperlink ref="H7" r:id="rId3"/>
-    <hyperlink ref="H8" r:id="rId4"/>
-    <hyperlink ref="H4" r:id="rId5"/>
-    <hyperlink ref="H9" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId1"/>
+    <hyperlink ref="G6" r:id="rId2"/>
+    <hyperlink ref="G7" r:id="rId3"/>
+    <hyperlink ref="G8" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="G9" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -984,10 +975,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1004,26 +995,34 @@
   <sheetData>
     <row r="1" spans="1:2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1033,6 +1032,81 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C11" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1047,7 +1121,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
@@ -1055,7 +1129,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1067,7 +1141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1083,7 +1157,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
@@ -1091,7 +1165,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1099,7 +1173,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -1107,7 +1181,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -1115,7 +1189,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -1127,7 +1201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1150,7 +1224,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
